--- a/data/results/all_xpos_annotated.xlsx
+++ b/data/results/all_xpos_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_09B92FB1445CD00F62355476585DCE3A87438FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4599D77-BA9C-4D04-B9C5-611ADC01BC18}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_09B92FB1445CD00F62355476585DCE3A87438FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34463564-36AA-4D4F-991F-2D200DD7F96F}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2340" windowWidth="19440" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="1300">
   <si>
     <t>Token</t>
   </si>
@@ -3917,6 +3917,9 @@
   </si>
   <si>
     <t>fpr</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -4299,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I491" sqref="I491:I522"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="I518" sqref="I518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,7 +5645,7 @@
         <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5990,7 +5993,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -10050,7 +10053,7 @@
         <v>141</v>
       </c>
       <c r="I198" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -10137,7 +10140,7 @@
         <v>199</v>
       </c>
       <c r="I201" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -10543,7 +10546,7 @@
         <v>602</v>
       </c>
       <c r="I215" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -12370,7 +12373,7 @@
         <v>748</v>
       </c>
       <c r="I278" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -13037,7 +13040,7 @@
         <v>601</v>
       </c>
       <c r="I301" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -17880,7 +17883,7 @@
         <v>664</v>
       </c>
       <c r="I468" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/results/all_xpos_annotated.xlsx
+++ b/data/results/all_xpos_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/ma-thesis-swe/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_09B92FB1445CD00F62355476585DCE3A87438FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34463564-36AA-4D4F-991F-2D200DD7F96F}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_09B92FB1445CD00F62355476585DCE3A87438FB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19A68B95-39B7-4CC8-A828-CE255261E2B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38970" yWindow="-135" windowWidth="18630" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="1298">
   <si>
     <t>Token</t>
   </si>
@@ -3877,9 +3877,6 @@
     <t>abbreviation</t>
   </si>
   <si>
-    <t>annotation</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -3914,9 +3911,6 @@
   </si>
   <si>
     <t>spelling</t>
-  </si>
-  <si>
-    <t>fpr</t>
   </si>
   <si>
     <t>e</t>
@@ -4302,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="I518" sqref="I518"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,7 +4856,7 @@
         <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4949,7 +4943,7 @@
         <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5326,7 +5320,7 @@
         <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,7 +5349,7 @@
         <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,7 +5378,7 @@
         <v>131</v>
       </c>
       <c r="I37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5442,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5500,7 +5494,7 @@
         <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5587,7 +5581,7 @@
         <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,7 +5639,7 @@
         <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5993,7 +5987,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -6341,7 +6335,7 @@
         <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6428,7 +6422,7 @@
         <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -6631,7 +6625,7 @@
         <v>57</v>
       </c>
       <c r="I80" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6689,7 +6683,7 @@
         <v>262</v>
       </c>
       <c r="I82" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6718,7 +6712,7 @@
         <v>234</v>
       </c>
       <c r="I83" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6747,7 +6741,7 @@
         <v>268</v>
       </c>
       <c r="I84" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6950,7 +6944,7 @@
         <v>57</v>
       </c>
       <c r="I91" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -7066,7 +7060,7 @@
         <v>57</v>
       </c>
       <c r="I95" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -7443,7 +7437,7 @@
         <v>51</v>
       </c>
       <c r="I108" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -7472,7 +7466,7 @@
         <v>58</v>
       </c>
       <c r="I109" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -7501,7 +7495,7 @@
         <v>344</v>
       </c>
       <c r="I110" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -7559,7 +7553,7 @@
         <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -7588,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="I113" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -7646,7 +7640,7 @@
         <v>106</v>
       </c>
       <c r="I115" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -7849,7 +7843,7 @@
         <v>195</v>
       </c>
       <c r="I122" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -8023,7 +8017,7 @@
         <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -8371,7 +8365,7 @@
         <v>430</v>
       </c>
       <c r="I140" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -8400,7 +8394,7 @@
         <v>156</v>
       </c>
       <c r="I141" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -8661,7 +8655,7 @@
         <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -8690,7 +8684,7 @@
         <v>199</v>
       </c>
       <c r="I151" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -8806,7 +8800,7 @@
         <v>131</v>
       </c>
       <c r="I155" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -8922,7 +8916,7 @@
         <v>180</v>
       </c>
       <c r="I159" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -9038,7 +9032,7 @@
         <v>180</v>
       </c>
       <c r="I163" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -9067,7 +9061,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -9125,7 +9119,7 @@
         <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -9154,7 +9148,7 @@
         <v>234</v>
       </c>
       <c r="I167" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -9183,7 +9177,7 @@
         <v>29</v>
       </c>
       <c r="I168" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -9212,7 +9206,7 @@
         <v>126</v>
       </c>
       <c r="I169" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -9270,7 +9264,7 @@
         <v>180</v>
       </c>
       <c r="I171" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -9328,7 +9322,7 @@
         <v>188</v>
       </c>
       <c r="I173" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -9502,7 +9496,7 @@
         <v>21</v>
       </c>
       <c r="I179" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -9560,7 +9554,7 @@
         <v>9</v>
       </c>
       <c r="I181" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -9618,7 +9612,7 @@
         <v>126</v>
       </c>
       <c r="I183" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -9647,7 +9641,7 @@
         <v>126</v>
       </c>
       <c r="I184" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -9676,7 +9670,7 @@
         <v>530</v>
       </c>
       <c r="I185" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -9734,7 +9728,7 @@
         <v>188</v>
       </c>
       <c r="I187" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -9792,7 +9786,7 @@
         <v>95</v>
       </c>
       <c r="I189" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9821,7 +9815,7 @@
         <v>165</v>
       </c>
       <c r="I190" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -10024,7 +10018,7 @@
         <v>176</v>
       </c>
       <c r="I197" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -10053,7 +10047,7 @@
         <v>141</v>
       </c>
       <c r="I198" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -10140,7 +10134,7 @@
         <v>199</v>
       </c>
       <c r="I201" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -10372,7 +10366,7 @@
         <v>587</v>
       </c>
       <c r="I209" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -10401,7 +10395,7 @@
         <v>77</v>
       </c>
       <c r="I210" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -10430,7 +10424,7 @@
         <v>391</v>
       </c>
       <c r="I211" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -10459,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="I212" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -10488,7 +10482,7 @@
         <v>43</v>
       </c>
       <c r="I213" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -10546,7 +10540,7 @@
         <v>602</v>
       </c>
       <c r="I215" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -10575,7 +10569,7 @@
         <v>180</v>
       </c>
       <c r="I216" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -10633,7 +10627,7 @@
         <v>29</v>
       </c>
       <c r="I218" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -10662,7 +10656,7 @@
         <v>54</v>
       </c>
       <c r="I219" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -10691,7 +10685,7 @@
         <v>29</v>
       </c>
       <c r="I220" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -10749,7 +10743,7 @@
         <v>618</v>
       </c>
       <c r="I222" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,7 +10830,7 @@
         <v>618</v>
       </c>
       <c r="I225" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -10952,7 +10946,7 @@
         <v>282</v>
       </c>
       <c r="I229" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -11010,7 +11004,7 @@
         <v>195</v>
       </c>
       <c r="I231" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -11155,7 +11149,7 @@
         <v>9</v>
       </c>
       <c r="I236" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -11416,7 +11410,7 @@
         <v>24</v>
       </c>
       <c r="I245" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -11532,7 +11526,7 @@
         <v>304</v>
       </c>
       <c r="I249" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -11590,7 +11584,7 @@
         <v>188</v>
       </c>
       <c r="I251" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -11619,7 +11613,7 @@
         <v>155</v>
       </c>
       <c r="I252" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -11648,7 +11642,7 @@
         <v>693</v>
       </c>
       <c r="I253" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -11677,7 +11671,7 @@
         <v>179</v>
       </c>
       <c r="I254" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -11706,7 +11700,7 @@
         <v>106</v>
       </c>
       <c r="I255" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -11822,7 +11816,7 @@
         <v>706</v>
       </c>
       <c r="I259" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -11880,7 +11874,7 @@
         <v>710</v>
       </c>
       <c r="I261" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -11938,7 +11932,7 @@
         <v>618</v>
       </c>
       <c r="I263" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -11967,7 +11961,7 @@
         <v>621</v>
       </c>
       <c r="I264" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -11996,7 +11990,7 @@
         <v>77</v>
       </c>
       <c r="I265" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -12025,7 +12019,7 @@
         <v>218</v>
       </c>
       <c r="I266" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -12315,7 +12309,7 @@
         <v>180</v>
       </c>
       <c r="I276" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -12373,7 +12367,7 @@
         <v>748</v>
       </c>
       <c r="I278" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -12402,7 +12396,7 @@
         <v>200</v>
       </c>
       <c r="I279" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -12489,7 +12483,7 @@
         <v>157</v>
       </c>
       <c r="I282" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -12547,7 +12541,7 @@
         <v>680</v>
       </c>
       <c r="I284" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -12576,7 +12570,7 @@
         <v>213</v>
       </c>
       <c r="I285" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -12750,7 +12744,7 @@
         <v>778</v>
       </c>
       <c r="I291" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -12779,7 +12773,7 @@
         <v>10</v>
       </c>
       <c r="I292" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -12837,7 +12831,7 @@
         <v>785</v>
       </c>
       <c r="I294" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -12866,7 +12860,7 @@
         <v>9</v>
       </c>
       <c r="I295" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -12924,7 +12918,7 @@
         <v>223</v>
       </c>
       <c r="I297" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -13040,7 +13034,7 @@
         <v>601</v>
       </c>
       <c r="I301" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -13098,7 +13092,7 @@
         <v>809</v>
       </c>
       <c r="I303" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -13156,7 +13150,7 @@
         <v>29</v>
       </c>
       <c r="I305" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -13185,7 +13179,7 @@
         <v>54</v>
       </c>
       <c r="I306" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -13214,7 +13208,7 @@
         <v>200</v>
       </c>
       <c r="I307" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -13243,7 +13237,7 @@
         <v>105</v>
       </c>
       <c r="I308" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -13301,7 +13295,7 @@
         <v>195</v>
       </c>
       <c r="I310" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -13359,7 +13353,7 @@
         <v>390</v>
       </c>
       <c r="I312" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -13388,7 +13382,7 @@
         <v>390</v>
       </c>
       <c r="I313" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -13417,7 +13411,7 @@
         <v>390</v>
       </c>
       <c r="I314" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -13446,7 +13440,7 @@
         <v>390</v>
       </c>
       <c r="I315" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -13475,7 +13469,7 @@
         <v>390</v>
       </c>
       <c r="I316" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -13504,7 +13498,7 @@
         <v>29</v>
       </c>
       <c r="I317" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -13562,7 +13556,7 @@
         <v>24</v>
       </c>
       <c r="I319" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -13707,7 +13701,7 @@
         <v>54</v>
       </c>
       <c r="I324" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -13794,7 +13788,7 @@
         <v>74</v>
       </c>
       <c r="I327" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -13823,7 +13817,7 @@
         <v>862</v>
       </c>
       <c r="I328" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -13852,7 +13846,7 @@
         <v>47</v>
       </c>
       <c r="I329" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -13910,7 +13904,7 @@
         <v>234</v>
       </c>
       <c r="I331" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -13939,7 +13933,7 @@
         <v>74</v>
       </c>
       <c r="I332" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -13968,7 +13962,7 @@
         <v>61</v>
       </c>
       <c r="I333" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -14055,7 +14049,7 @@
         <v>390</v>
       </c>
       <c r="I336" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -14084,7 +14078,7 @@
         <v>391</v>
       </c>
       <c r="I337" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -14113,7 +14107,7 @@
         <v>862</v>
       </c>
       <c r="I338" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -14142,7 +14136,7 @@
         <v>47</v>
       </c>
       <c r="I339" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -14171,7 +14165,7 @@
         <v>156</v>
       </c>
       <c r="I340" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -14258,7 +14252,7 @@
         <v>282</v>
       </c>
       <c r="I343" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -14287,7 +14281,7 @@
         <v>251</v>
       </c>
       <c r="I344" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -14345,7 +14339,7 @@
         <v>903</v>
       </c>
       <c r="I346" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -14403,7 +14397,7 @@
         <v>323</v>
       </c>
       <c r="I348" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -14432,7 +14426,7 @@
         <v>74</v>
       </c>
       <c r="I349" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -14461,7 +14455,7 @@
         <v>180</v>
       </c>
       <c r="I350" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -14722,7 +14716,7 @@
         <v>890</v>
       </c>
       <c r="I359" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -14780,7 +14774,7 @@
         <v>935</v>
       </c>
       <c r="I361" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -14838,7 +14832,7 @@
         <v>57</v>
       </c>
       <c r="I363" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -14925,7 +14919,7 @@
         <v>106</v>
       </c>
       <c r="I366" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -14954,7 +14948,7 @@
         <v>950</v>
       </c>
       <c r="I367" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
@@ -14983,7 +14977,7 @@
         <v>954</v>
       </c>
       <c r="I368" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -15012,7 +15006,7 @@
         <v>958</v>
       </c>
       <c r="I369" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -15041,7 +15035,7 @@
         <v>24</v>
       </c>
       <c r="I370" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -15070,7 +15064,7 @@
         <v>587</v>
       </c>
       <c r="I371" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -15099,7 +15093,7 @@
         <v>77</v>
       </c>
       <c r="I372" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -15244,7 +15238,7 @@
         <v>11</v>
       </c>
       <c r="I377" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -15331,7 +15325,7 @@
         <v>132</v>
       </c>
       <c r="I380" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -15447,7 +15441,7 @@
         <v>305</v>
       </c>
       <c r="I384" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -15505,7 +15499,7 @@
         <v>176</v>
       </c>
       <c r="I386" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -15534,7 +15528,7 @@
         <v>9</v>
       </c>
       <c r="I387" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -15650,7 +15644,7 @@
         <v>1004</v>
       </c>
       <c r="I391" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -15679,7 +15673,7 @@
         <v>286</v>
       </c>
       <c r="I392" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -15708,7 +15702,7 @@
         <v>9</v>
       </c>
       <c r="I393" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -15737,7 +15731,7 @@
         <v>9</v>
       </c>
       <c r="I394" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -15766,7 +15760,7 @@
         <v>958</v>
       </c>
       <c r="I395" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -15795,7 +15789,7 @@
         <v>249</v>
       </c>
       <c r="I396" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -15824,7 +15818,7 @@
         <v>953</v>
       </c>
       <c r="I397" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -15853,7 +15847,7 @@
         <v>249</v>
       </c>
       <c r="I398" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -15882,7 +15876,7 @@
         <v>106</v>
       </c>
       <c r="I399" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -15969,7 +15963,7 @@
         <v>9</v>
       </c>
       <c r="I402" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -15998,7 +15992,7 @@
         <v>9</v>
       </c>
       <c r="I403" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -16027,7 +16021,7 @@
         <v>126</v>
       </c>
       <c r="I404" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -16056,7 +16050,7 @@
         <v>126</v>
       </c>
       <c r="I405" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -16143,7 +16137,7 @@
         <v>106</v>
       </c>
       <c r="I408" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -16230,7 +16224,7 @@
         <v>9</v>
       </c>
       <c r="I411" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -16259,7 +16253,7 @@
         <v>9</v>
       </c>
       <c r="I412" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -16288,7 +16282,7 @@
         <v>9</v>
       </c>
       <c r="I413" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -16346,7 +16340,7 @@
         <v>304</v>
       </c>
       <c r="I415" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -16404,7 +16398,7 @@
         <v>105</v>
       </c>
       <c r="I417" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -16433,7 +16427,7 @@
         <v>9</v>
       </c>
       <c r="I418" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -16462,7 +16456,7 @@
         <v>188</v>
       </c>
       <c r="I419" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -16752,7 +16746,7 @@
         <v>74</v>
       </c>
       <c r="I429" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -16810,7 +16804,7 @@
         <v>200</v>
       </c>
       <c r="I431" t="s">
-        <v>1285</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -16897,7 +16891,7 @@
         <v>9</v>
       </c>
       <c r="I434" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -16984,7 +16978,7 @@
         <v>180</v>
       </c>
       <c r="I437" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -17013,7 +17007,7 @@
         <v>29</v>
       </c>
       <c r="I438" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
@@ -17042,7 +17036,7 @@
         <v>105</v>
       </c>
       <c r="I439" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -17187,7 +17181,7 @@
         <v>222</v>
       </c>
       <c r="I444" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -17245,7 +17239,7 @@
         <v>29</v>
       </c>
       <c r="I446" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -17303,7 +17297,7 @@
         <v>1114</v>
       </c>
       <c r="I448" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -17332,7 +17326,7 @@
         <v>661</v>
       </c>
       <c r="I449" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -17390,7 +17384,7 @@
         <v>191</v>
       </c>
       <c r="I451" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -17448,7 +17442,7 @@
         <v>20</v>
       </c>
       <c r="I453" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -17535,7 +17529,7 @@
         <v>1131</v>
       </c>
       <c r="I456" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -17564,7 +17558,7 @@
         <v>602</v>
       </c>
       <c r="I457" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
@@ -17622,7 +17616,7 @@
         <v>28</v>
       </c>
       <c r="I459" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
@@ -17709,7 +17703,7 @@
         <v>1152</v>
       </c>
       <c r="I462" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -17883,7 +17877,7 @@
         <v>664</v>
       </c>
       <c r="I468" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -17941,7 +17935,7 @@
         <v>274</v>
       </c>
       <c r="I470" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
@@ -18231,7 +18225,7 @@
         <v>58</v>
       </c>
       <c r="I480" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -18289,7 +18283,7 @@
         <v>1195</v>
       </c>
       <c r="I482" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -18318,7 +18312,7 @@
         <v>1195</v>
       </c>
       <c r="I483" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
@@ -18405,7 +18399,7 @@
         <v>282</v>
       </c>
       <c r="I486" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -18434,7 +18428,7 @@
         <v>357</v>
       </c>
       <c r="I487" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -18463,7 +18457,7 @@
         <v>157</v>
       </c>
       <c r="I488" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -18492,7 +18486,7 @@
         <v>935</v>
       </c>
       <c r="I489" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
@@ -18550,7 +18544,7 @@
         <v>54</v>
       </c>
       <c r="I491" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -18608,7 +18602,7 @@
         <v>57</v>
       </c>
       <c r="I493" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
@@ -18666,7 +18660,7 @@
         <v>335</v>
       </c>
       <c r="I495" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -18985,7 +18979,7 @@
         <v>54</v>
       </c>
       <c r="I506" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -19101,7 +19095,7 @@
         <v>74</v>
       </c>
       <c r="I510" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -19275,7 +19269,7 @@
         <v>57</v>
       </c>
       <c r="I516" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -19304,7 +19298,7 @@
         <v>57</v>
       </c>
       <c r="I517" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -19333,7 +19327,7 @@
         <v>323</v>
       </c>
       <c r="I518" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
